--- a/분할정리.xlsx
+++ b/분할정리.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git\camara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4062D78-F6FC-475F-986D-E58A9670C3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3CAAF-24C9-4F5E-8AD3-EF5EE04D5E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7802B41-A5C5-4840-818B-599BC9593F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +48,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -55,12 +63,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -76,12 +78,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -90,67 +98,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color theme="0"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,41 +250,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,129 +616,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BED811E-BA96-404C-A0CF-F02DCF25D040}">
-  <dimension ref="F1:R16"/>
+  <dimension ref="B1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="34" width="6.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2">
+    <row r="1" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="2"/>
+      <c r="F2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="6">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="6">
+        <v>13</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>13</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="1"/>
     </row>
-    <row r="3" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="1"/>
+    <row r="4" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="1"/>
     </row>
-    <row r="4" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="1"/>
+    <row r="5" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
     </row>
-    <row r="5" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="1"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="1"/>
+    <row r="6" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
-    <row r="6" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="6:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="F2:H4"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/분할정리.xlsx
+++ b/분할정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git\camara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3CAAF-24C9-4F5E-8AD3-EF5EE04D5E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7703027-12A6-40E9-912A-09D08E1CE3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7802B41-A5C5-4840-818B-599BC9593F35}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,7 +49,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -89,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -101,19 +109,6 @@
       <left style="thick">
         <color theme="0"/>
       </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="0"/>
       </right>
@@ -125,123 +120,113 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="0"/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="thick">
-        <color theme="0"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom style="thick">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right/>
       <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -250,57 +235,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +640,7 @@
   <dimension ref="B1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,147 +648,150 @@
     <col min="1" max="34" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="6">
+      <c r="F2" s="25">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="6">
+      <c r="K2" s="21">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="6">
+      <c r="P2" s="21">
         <v>10</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="6">
+      <c r="U2" s="21">
         <v>13</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="1"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9">
+    <row r="3" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="11"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="1"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1"/>
+    <row r="4" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="1"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+    <row r="5" spans="2:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="2:24" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+    <row r="6" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
     <mergeCell ref="M4:N5"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:S3"/>
     <mergeCell ref="F2:H4"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
